--- a/testData.xlsx
+++ b/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\EaglePerformanceTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Eagle-PerformanceTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CE3568-CF80-4D29-B7D7-95E4F21F5BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EF85BE-C539-4193-93BD-B54E0A511AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{E6C3C7F9-FB3F-4CB4-BF61-AEEDCA7BA5B3}"/>
+    <workbookView xWindow="-30828" yWindow="-2184" windowWidth="30936" windowHeight="16896" xr2:uid="{E6C3C7F9-FB3F-4CB4-BF61-AEEDCA7BA5B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,85 +31,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>notification_list</t>
-  </si>
-  <si>
-    <t>listOptionNumber</t>
-  </si>
-  <si>
-    <t>displayRounding</t>
-  </si>
-  <si>
     <t>locationSearch</t>
   </si>
   <si>
+    <t>AMV2</t>
+  </si>
+  <si>
+    <t>minValue</t>
+  </si>
+  <si>
+    <t>maxValue</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>Failed error message</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>passWord</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>periodFrequency</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>msedgedriverPath</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>C:\\workspace\\Eagle-PerformanceTest\\msedgedriver.exe</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>11,JAN,2014</t>
+  </si>
+  <si>
     <t>https://development.eagle3.orsted.dk/#/Home</t>
   </si>
   <si>
-    <t>.//mat-list[@class='mat-list mat-list-base']/child::mat-list-item</t>
-  </si>
-  <si>
-    <t>AMV2</t>
-  </si>
-  <si>
-    <t>minValue</t>
-  </si>
-  <si>
-    <t>maxValue</t>
-  </si>
-  <si>
-    <t>errorMessage</t>
-  </si>
-  <si>
-    <t>Failed error message</t>
-  </si>
-  <si>
-    <t>https://staging.eagle3.orsted.dk/#/Home</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>passWord</t>
-  </si>
-  <si>
-    <t>dedu#654321@</t>
-  </si>
-  <si>
-    <t>liywe@orsted.dk</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>edge</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>groupName</t>
-  </si>
-  <si>
-    <t>AVV Skibsanløb Træpiller - indtil ultimo 2015</t>
-  </si>
-  <si>
-    <t>periodFrequency</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>development</t>
+  </si>
+  <si>
+    <t>AVV2-model, Signal-Timeværdier Validering/Døgn</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>0002. Normal metre INSQL</t>
+  </si>
+  <si>
+    <t>NOV,2016</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>0030. El + Emission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -121,6 +133,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -145,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -158,6 +176,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -473,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219780C7-C7DA-4CE8-AA4A-6DB8953D5145}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -485,7 +512,7 @@
     <col min="2" max="2" width="42.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="49.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
     <col min="10" max="10" width="20.88671875" customWidth="1"/>
@@ -500,66 +527,66 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -568,43 +595,75 @@
         <v>4</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2014</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M3:M1048576" xr:uid="{2D2FB9F6-7822-484A-B81E-E937B2D0FD87}">
       <formula1>"'Chrome';'edge'"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{1E51CDF4-7D67-4418-B6A2-24D57A33CA4E}">
       <formula1>"Chrome,edge"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8" xr:uid="{8F7B8054-EDAF-45EB-84A6-F1E6824F072F}">
+      <formula1>"t,y"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A11" xr:uid="{71A247C5-7CE3-419D-BA11-BA51E2229A26}">
+      <formula1>"https://development.eagle3.orsted.dk/#/Home,y"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{2139C73F-B176-4535-B95B-1814E85AD210}">
+      <formula1>"https://development.eagle3.orsted.dk/#/Home,https://staging.eagle3.orsted.dk/#/Home"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{89895AE7-61C7-4FFE-B612-A71A0C6F026D}">
+      <formula1>"staging,development"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{D27EB9FE-C548-434F-8FD0-7F0BF27E2D3D}">
+      <formula1>"month,NA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{2D788854-DC4D-42CB-93F9-A2F81281458B}">
+      <formula1>"day,NA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{5573664D-C2E3-4246-BD14-8E57871E1391}">
+      <formula1>"year,NA"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="/Home" xr:uid="{C187F5A1-7416-40AF-A68D-3BF01BACE4AE}"/>
-    <hyperlink ref="A2" r:id="rId2" location="/Home" xr:uid="{132F0376-808A-49AF-9681-5022A2A72328}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{83759641-6179-48E4-8E06-BF79CA444DAC}"/>
-    <hyperlink ref="L2" r:id="rId4" xr:uid="{5F3D8045-DDD0-47B0-8385-F8A3F929E4FC}"/>
+    <hyperlink ref="A2" r:id="rId1" location="/Home" display="https://staging.eagle3.orsted.dk/#/Home" xr:uid="{132F0376-808A-49AF-9681-5022A2A72328}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Arial Black"&amp;10&amp;K4099DAINTERNAL</oddFooter>
   </headerFooter>
